--- a/src/main/resources/templates/ReporteConsultoriasMentor.xlsx
+++ b/src/main/resources/templates/ReporteConsultoriasMentor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\TRABAJO DE GRADO\sinapsis_app\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB388C55-E107-41B0-A19D-AE621D1BBB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C879C-DBC7-4009-B7CE-C5FE3525CB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-48" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte_Consultorias" sheetId="2" r:id="rId1"/>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">CONSOLIDADO SOLICITUDES ORDENES DE SALIDA </t>
-  </si>
   <si>
     <t>ID_CONSULTORIA</t>
   </si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>CARGO_MENTOR</t>
+  </si>
+  <si>
+    <t>REPORTE DE CONSULTORIAS</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:AJ200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -683,52 +683,52 @@
     </row>
     <row r="2" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
